--- a/Data files for UniMelb Project - data until 2021/excel/TAS.xlsx
+++ b/Data files for UniMelb Project - data until 2021/excel/TAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AND TWO玄秦\40 迷迷失输\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangzhihan/Documents/GitHub/DS-Project-Group-19/Data files for UniMelb Project - data until 2021/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9313BD45-B1D6-432E-8F7E-A660919E1E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4CFE2A-7063-094B-BE56-651E094955B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6673134A-8A75-4D41-85AA-7BF77B93B0B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{6673134A-8A75-4D41-85AA-7BF77B93B0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3918,7 +3918,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4285,9 +4285,14 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>253</v>
       </c>
@@ -4309,7 +4314,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>254</v>
       </c>
@@ -4320,7 +4325,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>255</v>
       </c>
@@ -4331,7 +4336,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>256</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>257</v>
       </c>
@@ -4353,7 +4358,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>258</v>
       </c>
@@ -4364,7 +4369,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>259</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>260</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>261</v>
       </c>
@@ -4397,7 +4402,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>262</v>
       </c>
@@ -4408,7 +4413,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>263</v>
       </c>
@@ -4419,7 +4424,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>264</v>
       </c>
@@ -4430,7 +4435,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>265</v>
       </c>
@@ -4441,7 +4446,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>266</v>
       </c>
@@ -4452,7 +4457,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>267</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>268</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>269</v>
       </c>
@@ -4485,7 +4490,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>270</v>
       </c>
@@ -4496,7 +4501,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>271</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>272</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>273</v>
       </c>
@@ -4529,7 +4534,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>274</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>275</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>276</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>277</v>
       </c>
@@ -4573,7 +4578,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>278</v>
       </c>
@@ -4584,7 +4589,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>279</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>280</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>281</v>
       </c>
@@ -4617,7 +4622,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>282</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>283</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>284</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>285</v>
       </c>
@@ -4661,7 +4666,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>286</v>
       </c>
@@ -4672,7 +4677,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>287</v>
       </c>
@@ -4683,7 +4688,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>288</v>
       </c>
@@ -4694,7 +4699,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>289</v>
       </c>
@@ -4705,7 +4710,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>290</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>291</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>292</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>293</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>294</v>
       </c>
@@ -4760,7 +4765,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>295</v>
       </c>
@@ -4771,7 +4776,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
         <v>296</v>
       </c>
@@ -4782,7 +4787,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>297</v>
       </c>
@@ -4793,7 +4798,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>298</v>
       </c>
@@ -4804,7 +4809,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>299</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1" t="s">
         <v>300</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
         <v>301</v>
       </c>
@@ -4837,7 +4842,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
         <v>302</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1" t="s">
         <v>303</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1" t="s">
         <v>304</v>
       </c>
@@ -4870,7 +4875,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1" t="s">
         <v>305</v>
       </c>
@@ -4881,7 +4886,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1" t="s">
         <v>306</v>
       </c>
@@ -4892,7 +4897,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1" t="s">
         <v>307</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1" t="s">
         <v>308</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1" t="s">
         <v>309</v>
       </c>
@@ -4925,7 +4930,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1" t="s">
         <v>310</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1" t="s">
         <v>311</v>
       </c>
@@ -4947,7 +4952,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1" t="s">
         <v>312</v>
       </c>
@@ -4958,7 +4963,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
         <v>313</v>
       </c>
@@ -4969,7 +4974,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1" t="s">
         <v>314</v>
       </c>
@@ -4980,7 +4985,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
         <v>315</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>316</v>
       </c>
@@ -5002,7 +5007,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>317</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>318</v>
       </c>
@@ -5024,7 +5029,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>319</v>
       </c>
@@ -5035,7 +5040,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>320</v>
       </c>
@@ -5046,7 +5051,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>321</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1" t="s">
         <v>322</v>
       </c>
@@ -5068,7 +5073,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1" t="s">
         <v>323</v>
       </c>
@@ -5079,7 +5084,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1" t="s">
         <v>324</v>
       </c>
@@ -5090,7 +5095,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
         <v>325</v>
       </c>
@@ -5101,7 +5106,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1" t="s">
         <v>326</v>
       </c>
@@ -5112,7 +5117,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1" t="s">
         <v>327</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1" t="s">
         <v>328</v>
       </c>
@@ -5134,7 +5139,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
         <v>329</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
         <v>330</v>
       </c>
@@ -5156,7 +5161,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
         <v>331</v>
       </c>
@@ -5167,7 +5172,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
         <v>332</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
         <v>333</v>
       </c>
@@ -5189,7 +5194,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
         <v>334</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
         <v>335</v>
       </c>
@@ -5211,7 +5216,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
         <v>336</v>
       </c>
@@ -5222,7 +5227,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
         <v>337</v>
       </c>
@@ -5233,7 +5238,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
         <v>338</v>
       </c>
@@ -5244,7 +5249,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
         <v>339</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
         <v>340</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
         <v>341</v>
       </c>
@@ -5277,7 +5282,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
         <v>342</v>
       </c>
@@ -5288,7 +5293,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
         <v>343</v>
       </c>
@@ -5299,7 +5304,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
         <v>344</v>
       </c>
@@ -5310,7 +5315,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
         <v>345</v>
       </c>
@@ -5321,7 +5326,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
         <v>346</v>
       </c>
@@ -5332,7 +5337,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
         <v>347</v>
       </c>
@@ -5343,7 +5348,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
         <v>348</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
         <v>349</v>
       </c>
@@ -5365,7 +5370,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
         <v>350</v>
       </c>
@@ -5376,7 +5381,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
         <v>351</v>
       </c>
@@ -5387,7 +5392,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
         <v>352</v>
       </c>
@@ -5398,7 +5403,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
         <v>353</v>
       </c>
@@ -5409,7 +5414,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
         <v>354</v>
       </c>
@@ -5420,7 +5425,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
         <v>355</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
         <v>356</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
         <v>357</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
         <v>358</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
         <v>359</v>
       </c>
@@ -5475,7 +5480,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
         <v>360</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
         <v>361</v>
       </c>
@@ -5497,7 +5502,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
         <v>362</v>
       </c>
@@ -5508,7 +5513,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
         <v>363</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
         <v>364</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
         <v>365</v>
       </c>
@@ -5541,7 +5546,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
         <v>366</v>
       </c>
@@ -5552,7 +5557,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
         <v>367</v>
       </c>
@@ -5563,7 +5568,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
         <v>368</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
         <v>369</v>
       </c>
@@ -5585,7 +5590,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
         <v>370</v>
       </c>
@@ -5596,7 +5601,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
         <v>371</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
         <v>372</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
         <v>373</v>
       </c>
@@ -5629,7 +5634,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
         <v>374</v>
       </c>
@@ -5640,7 +5645,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
         <v>375</v>
       </c>
@@ -5651,7 +5656,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
         <v>376</v>
       </c>
@@ -5662,7 +5667,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
         <v>377</v>
       </c>
@@ -5673,7 +5678,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
         <v>378</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
         <v>379</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
         <v>380</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
         <v>381</v>
       </c>
@@ -5717,7 +5722,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
         <v>382</v>
       </c>
@@ -5728,7 +5733,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
         <v>383</v>
       </c>
@@ -5739,7 +5744,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
         <v>384</v>
       </c>
@@ -5750,7 +5755,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
         <v>385</v>
       </c>
@@ -5761,7 +5766,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
         <v>386</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
         <v>387</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1" t="s">
         <v>388</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1" t="s">
         <v>389</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1" t="s">
         <v>390</v>
       </c>
@@ -5816,7 +5821,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1" t="s">
         <v>391</v>
       </c>
@@ -5827,7 +5832,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1" t="s">
         <v>392</v>
       </c>
@@ -5838,7 +5843,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1" t="s">
         <v>393</v>
       </c>
@@ -5849,7 +5854,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1" t="s">
         <v>394</v>
       </c>
@@ -5860,7 +5865,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1" t="s">
         <v>395</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>396</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1" t="s">
         <v>397</v>
       </c>
@@ -5893,7 +5898,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1" t="s">
         <v>398</v>
       </c>
@@ -5904,7 +5909,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1" t="s">
         <v>399</v>
       </c>
@@ -5915,7 +5920,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1" t="s">
         <v>400</v>
       </c>
@@ -5926,7 +5931,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1" t="s">
         <v>401</v>
       </c>
@@ -5937,7 +5942,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1" t="s">
         <v>402</v>
       </c>
@@ -5948,7 +5953,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1" t="s">
         <v>403</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1" t="s">
         <v>404</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" s="1" t="s">
         <v>405</v>
       </c>
@@ -5981,7 +5986,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" s="1" t="s">
         <v>406</v>
       </c>
@@ -5992,7 +5997,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3">
       <c r="A156" s="1" t="s">
         <v>407</v>
       </c>
@@ -6003,7 +6008,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -6014,7 +6019,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3">
       <c r="A158" s="1" t="s">
         <v>409</v>
       </c>
@@ -6025,7 +6030,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" s="1" t="s">
         <v>410</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3">
       <c r="A160" s="1" t="s">
         <v>411</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3">
       <c r="A161" s="1" t="s">
         <v>412</v>
       </c>
@@ -6058,7 +6063,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3">
       <c r="A162" s="1" t="s">
         <v>413</v>
       </c>
@@ -6069,7 +6074,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3">
       <c r="A163" s="1" t="s">
         <v>414</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3">
       <c r="A164" s="1" t="s">
         <v>415</v>
       </c>
@@ -6091,7 +6096,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3">
       <c r="A165" s="1" t="s">
         <v>416</v>
       </c>
@@ -6102,7 +6107,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" s="1" t="s">
         <v>417</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3">
       <c r="A167" s="1" t="s">
         <v>418</v>
       </c>
@@ -6124,7 +6129,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" s="1" t="s">
         <v>419</v>
       </c>
@@ -6135,7 +6140,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3">
       <c r="A169" s="1" t="s">
         <v>420</v>
       </c>
@@ -6146,7 +6151,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3">
       <c r="A170" s="1" t="s">
         <v>421</v>
       </c>
@@ -6157,7 +6162,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" s="1" t="s">
         <v>422</v>
       </c>
@@ -6168,7 +6173,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3">
       <c r="A172" s="1" t="s">
         <v>423</v>
       </c>
@@ -6179,7 +6184,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3">
       <c r="A173" s="1" t="s">
         <v>424</v>
       </c>
@@ -6190,7 +6195,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3">
       <c r="A174" s="1" t="s">
         <v>425</v>
       </c>
@@ -6201,7 +6206,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3">
       <c r="A175" s="1" t="s">
         <v>426</v>
       </c>
@@ -6212,7 +6217,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" s="1" t="s">
         <v>427</v>
       </c>
@@ -6223,7 +6228,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" s="1" t="s">
         <v>428</v>
       </c>
@@ -6234,7 +6239,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" s="1" t="s">
         <v>429</v>
       </c>
@@ -6245,7 +6250,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" s="1" t="s">
         <v>430</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" s="1" t="s">
         <v>431</v>
       </c>
@@ -6267,7 +6272,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" s="1" t="s">
         <v>432</v>
       </c>
@@ -6278,7 +6283,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" s="1" t="s">
         <v>433</v>
       </c>
@@ -6289,7 +6294,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" s="1" t="s">
         <v>434</v>
       </c>
@@ -6300,7 +6305,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" s="1" t="s">
         <v>435</v>
       </c>
@@ -6311,7 +6316,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" s="1" t="s">
         <v>436</v>
       </c>
@@ -6322,7 +6327,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" s="1" t="s">
         <v>437</v>
       </c>
@@ -6333,7 +6338,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" s="1" t="s">
         <v>438</v>
       </c>
@@ -6344,7 +6349,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" s="1" t="s">
         <v>439</v>
       </c>
@@ -6355,7 +6360,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" s="1" t="s">
         <v>440</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" s="1" t="s">
         <v>441</v>
       </c>
@@ -6377,7 +6382,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" s="1" t="s">
         <v>442</v>
       </c>
@@ -6388,7 +6393,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" s="1" t="s">
         <v>443</v>
       </c>
@@ -6399,7 +6404,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3">
       <c r="A193" s="1" t="s">
         <v>444</v>
       </c>
@@ -6410,7 +6415,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" s="1" t="s">
         <v>445</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3">
       <c r="A195" s="1" t="s">
         <v>446</v>
       </c>
@@ -6432,7 +6437,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3">
       <c r="A196" s="1" t="s">
         <v>447</v>
       </c>
@@ -6443,7 +6448,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3">
       <c r="A197" s="1" t="s">
         <v>448</v>
       </c>
@@ -6454,7 +6459,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3">
       <c r="A198" s="1" t="s">
         <v>449</v>
       </c>
@@ -6465,7 +6470,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3">
       <c r="A199" s="1" t="s">
         <v>450</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" s="1" t="s">
         <v>451</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3">
       <c r="A201" s="1" t="s">
         <v>452</v>
       </c>
@@ -6498,7 +6503,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3">
       <c r="A202" s="1" t="s">
         <v>453</v>
       </c>
@@ -6509,7 +6514,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3">
       <c r="A203" s="1" t="s">
         <v>454</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3">
       <c r="A204" s="1" t="s">
         <v>455</v>
       </c>
@@ -6531,7 +6536,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3">
       <c r="A205" s="1" t="s">
         <v>456</v>
       </c>
@@ -6542,7 +6547,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" s="1" t="s">
         <v>457</v>
       </c>
@@ -6553,7 +6558,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3">
       <c r="A207" s="1" t="s">
         <v>458</v>
       </c>
@@ -6564,7 +6569,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3">
       <c r="A208" s="1" t="s">
         <v>459</v>
       </c>
@@ -6575,7 +6580,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3">
       <c r="A209" s="1" t="s">
         <v>460</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" s="1" t="s">
         <v>461</v>
       </c>
@@ -6597,7 +6602,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" s="1" t="s">
         <v>462</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3">
       <c r="A212" s="1" t="s">
         <v>463</v>
       </c>
@@ -6619,7 +6624,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3">
       <c r="A213" s="1" t="s">
         <v>464</v>
       </c>
@@ -6630,7 +6635,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3">
       <c r="A214" s="1" t="s">
         <v>465</v>
       </c>
@@ -6641,7 +6646,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3">
       <c r="A215" s="1" t="s">
         <v>466</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3">
       <c r="A216" s="1" t="s">
         <v>467</v>
       </c>
@@ -6663,7 +6668,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3">
       <c r="A217" s="1" t="s">
         <v>468</v>
       </c>
@@ -6674,7 +6679,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3">
       <c r="A218" s="1" t="s">
         <v>469</v>
       </c>
@@ -6685,7 +6690,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3">
       <c r="A219" s="1" t="s">
         <v>470</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" s="1" t="s">
         <v>471</v>
       </c>
@@ -6707,7 +6712,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" s="1" t="s">
         <v>472</v>
       </c>
@@ -6718,7 +6723,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3">
       <c r="A222" s="1" t="s">
         <v>473</v>
       </c>
@@ -6729,7 +6734,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3">
       <c r="A223" s="1" t="s">
         <v>474</v>
       </c>
@@ -6740,7 +6745,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3">
       <c r="A224" s="1" t="s">
         <v>475</v>
       </c>
@@ -6751,7 +6756,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" s="1" t="s">
         <v>476</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" s="1" t="s">
         <v>477</v>
       </c>
@@ -6773,7 +6778,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" s="1" t="s">
         <v>478</v>
       </c>
@@ -6784,7 +6789,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" s="1" t="s">
         <v>479</v>
       </c>
@@ -6795,7 +6800,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" s="1" t="s">
         <v>480</v>
       </c>
@@ -6806,7 +6811,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>481</v>
       </c>
@@ -6817,7 +6822,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" s="1" t="s">
         <v>482</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" s="1" t="s">
         <v>483</v>
       </c>
@@ -6839,7 +6844,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>484</v>
       </c>
@@ -6850,7 +6855,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" s="1" t="s">
         <v>485</v>
       </c>
@@ -6861,7 +6866,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" s="1" t="s">
         <v>486</v>
       </c>
@@ -6872,7 +6877,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" s="1" t="s">
         <v>487</v>
       </c>
@@ -6883,7 +6888,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" s="1" t="s">
         <v>488</v>
       </c>
@@ -6894,7 +6899,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" s="1" t="s">
         <v>489</v>
       </c>
@@ -6905,7 +6910,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" s="1" t="s">
         <v>490</v>
       </c>
@@ -6916,7 +6921,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" s="1" t="s">
         <v>491</v>
       </c>
@@ -6927,7 +6932,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" s="1" t="s">
         <v>492</v>
       </c>
@@ -6938,7 +6943,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" s="1" t="s">
         <v>493</v>
       </c>
@@ -6949,7 +6954,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" s="1" t="s">
         <v>494</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" s="1" t="s">
         <v>495</v>
       </c>
@@ -6971,7 +6976,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" s="1" t="s">
         <v>496</v>
       </c>
@@ -6982,7 +6987,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" s="1" t="s">
         <v>497</v>
       </c>
@@ -6993,7 +6998,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" s="1" t="s">
         <v>498</v>
       </c>
@@ -7004,7 +7009,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" s="1" t="s">
         <v>499</v>
       </c>
@@ -7015,7 +7020,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" s="1" t="s">
         <v>500</v>
       </c>
@@ -7026,7 +7031,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" s="1" t="s">
         <v>501</v>
       </c>
@@ -7037,7 +7042,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" s="1" t="s">
         <v>502</v>
       </c>
@@ -7048,7 +7053,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" s="1" t="s">
         <v>503</v>
       </c>
@@ -7059,7 +7064,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" s="1" t="s">
         <v>504</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" s="1" t="s">
         <v>505</v>
       </c>
@@ -7081,7 +7086,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" s="1" t="s">
         <v>506</v>
       </c>
@@ -7092,7 +7097,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" s="1" t="s">
         <v>507</v>
       </c>
@@ -7103,7 +7108,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" s="1" t="s">
         <v>508</v>
       </c>
@@ -7114,7 +7119,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" s="1" t="s">
         <v>509</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" s="1" t="s">
         <v>510</v>
       </c>
@@ -7136,7 +7141,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" s="1" t="s">
         <v>511</v>
       </c>
@@ -7147,7 +7152,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" s="1" t="s">
         <v>512</v>
       </c>
@@ -7158,7 +7163,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" s="1" t="s">
         <v>513</v>
       </c>
@@ -7169,7 +7174,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>514</v>
       </c>
@@ -7180,7 +7185,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>515</v>
       </c>
@@ -7191,7 +7196,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" s="1" t="s">
         <v>516</v>
       </c>
@@ -7202,7 +7207,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" s="1" t="s">
         <v>517</v>
       </c>
@@ -7213,7 +7218,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" s="1" t="s">
         <v>518</v>
       </c>
@@ -7224,7 +7229,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" s="1" t="s">
         <v>519</v>
       </c>
@@ -7235,7 +7240,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" s="1" t="s">
         <v>520</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" s="1" t="s">
         <v>521</v>
       </c>
@@ -7257,7 +7262,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" s="1" t="s">
         <v>522</v>
       </c>
@@ -7268,7 +7273,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" s="1" t="s">
         <v>523</v>
       </c>
@@ -7279,7 +7284,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" s="1" t="s">
         <v>524</v>
       </c>
@@ -7290,7 +7295,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" s="1" t="s">
         <v>525</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" s="1" t="s">
         <v>526</v>
       </c>
@@ -7312,7 +7317,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" s="1" t="s">
         <v>527</v>
       </c>
@@ -7323,7 +7328,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" s="1" t="s">
         <v>528</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" s="1" t="s">
         <v>529</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" s="1" t="s">
         <v>530</v>
       </c>
@@ -7356,7 +7361,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" s="1" t="s">
         <v>531</v>
       </c>
@@ -7367,7 +7372,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" s="1" t="s">
         <v>532</v>
       </c>
@@ -7378,7 +7383,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" s="1" t="s">
         <v>533</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" s="1" t="s">
         <v>534</v>
       </c>
@@ -7400,7 +7405,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" s="1" t="s">
         <v>535</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" s="1" t="s">
         <v>536</v>
       </c>
@@ -7422,7 +7427,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" s="1" t="s">
         <v>537</v>
       </c>
@@ -7433,7 +7438,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" s="1" t="s">
         <v>538</v>
       </c>
@@ -7444,7 +7449,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" s="1" t="s">
         <v>539</v>
       </c>
@@ -7455,7 +7460,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" s="1" t="s">
         <v>540</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" s="1" t="s">
         <v>541</v>
       </c>
@@ -7477,7 +7482,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" s="1" t="s">
         <v>542</v>
       </c>
@@ -7488,7 +7493,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" s="1" t="s">
         <v>543</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" s="1" t="s">
         <v>544</v>
       </c>
@@ -7510,7 +7515,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" s="1" t="s">
         <v>545</v>
       </c>
@@ -7521,7 +7526,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" s="1" t="s">
         <v>546</v>
       </c>
@@ -7532,7 +7537,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" s="1" t="s">
         <v>547</v>
       </c>
@@ -7543,7 +7548,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" s="1" t="s">
         <v>548</v>
       </c>
@@ -7554,7 +7559,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" s="1" t="s">
         <v>549</v>
       </c>
@@ -7565,7 +7570,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" s="1" t="s">
         <v>550</v>
       </c>
@@ -7576,7 +7581,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" s="1" t="s">
         <v>551</v>
       </c>
@@ -7587,7 +7592,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" s="1" t="s">
         <v>552</v>
       </c>
@@ -7598,7 +7603,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" s="1" t="s">
         <v>553</v>
       </c>
@@ -7609,7 +7614,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" s="1" t="s">
         <v>554</v>
       </c>
@@ -7620,7 +7625,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" s="1" t="s">
         <v>555</v>
       </c>
@@ -7631,7 +7636,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" s="1" t="s">
         <v>556</v>
       </c>
@@ -7642,7 +7647,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" s="1" t="s">
         <v>557</v>
       </c>
@@ -7653,7 +7658,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" s="1" t="s">
         <v>558</v>
       </c>
@@ -7664,7 +7669,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" s="1" t="s">
         <v>559</v>
       </c>
@@ -7675,7 +7680,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" s="1" t="s">
         <v>560</v>
       </c>
@@ -7686,7 +7691,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" s="1" t="s">
         <v>561</v>
       </c>
@@ -7697,7 +7702,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" s="1" t="s">
         <v>562</v>
       </c>
@@ -7708,7 +7713,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" s="1" t="s">
         <v>563</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" s="1" t="s">
         <v>564</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" s="1" t="s">
         <v>565</v>
       </c>
@@ -7741,7 +7746,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" s="1" t="s">
         <v>566</v>
       </c>
@@ -7752,7 +7757,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" s="1" t="s">
         <v>567</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" s="1" t="s">
         <v>568</v>
       </c>
@@ -7774,7 +7779,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" s="1" t="s">
         <v>569</v>
       </c>
@@ -7785,7 +7790,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" s="1" t="s">
         <v>570</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" s="1" t="s">
         <v>571</v>
       </c>
@@ -7807,7 +7812,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" s="1" t="s">
         <v>572</v>
       </c>
@@ -7818,7 +7823,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" s="1" t="s">
         <v>573</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" s="1" t="s">
         <v>574</v>
       </c>
@@ -7840,7 +7845,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" s="1" t="s">
         <v>575</v>
       </c>
@@ -7851,7 +7856,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" s="1" t="s">
         <v>576</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" s="1" t="s">
         <v>577</v>
       </c>
@@ -7873,7 +7878,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" s="1" t="s">
         <v>578</v>
       </c>
@@ -7884,7 +7889,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" s="1" t="s">
         <v>579</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" s="1" t="s">
         <v>580</v>
       </c>
@@ -7906,7 +7911,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" s="1" t="s">
         <v>581</v>
       </c>
@@ -7917,7 +7922,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" s="1" t="s">
         <v>582</v>
       </c>
@@ -7928,7 +7933,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" s="1" t="s">
         <v>583</v>
       </c>
@@ -7939,7 +7944,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>584</v>
       </c>
@@ -7950,7 +7955,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>585</v>
       </c>
@@ -7961,7 +7966,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>586</v>
       </c>
@@ -7972,7 +7977,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>587</v>
       </c>
@@ -7983,7 +7988,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>588</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" s="1" t="s">
         <v>589</v>
       </c>
@@ -8005,7 +8010,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" s="1" t="s">
         <v>590</v>
       </c>
@@ -8016,7 +8021,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" s="1" t="s">
         <v>591</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" s="1" t="s">
         <v>592</v>
       </c>
@@ -8038,7 +8043,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="1" t="s">
         <v>593</v>
       </c>
@@ -8049,7 +8054,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>594</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>595</v>
       </c>
@@ -8071,7 +8076,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>596</v>
       </c>
@@ -8082,7 +8087,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" s="1" t="s">
         <v>597</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>598</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" s="1" t="s">
         <v>599</v>
       </c>
@@ -8115,7 +8120,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" s="1" t="s">
         <v>600</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" s="1" t="s">
         <v>601</v>
       </c>
@@ -8137,7 +8142,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>602</v>
       </c>
@@ -8148,7 +8153,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>603</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
         <v>604</v>
       </c>
@@ -8170,7 +8175,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" s="1" t="s">
         <v>605</v>
       </c>
@@ -8181,7 +8186,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" s="1" t="s">
         <v>606</v>
       </c>
@@ -8192,7 +8197,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" s="1" t="s">
         <v>607</v>
       </c>
@@ -8203,7 +8208,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>608</v>
       </c>
@@ -8214,7 +8219,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>609</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" s="1" t="s">
         <v>610</v>
       </c>
@@ -8236,7 +8241,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" s="1" t="s">
         <v>611</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" s="1" t="s">
         <v>612</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>613</v>
       </c>
@@ -8269,7 +8274,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" s="1" t="s">
         <v>614</v>
       </c>
@@ -8280,7 +8285,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>615</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>616</v>
       </c>
@@ -8302,7 +8307,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>617</v>
       </c>
@@ -8313,7 +8318,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" s="1" t="s">
         <v>618</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" s="1" t="s">
         <v>619</v>
       </c>
@@ -8335,7 +8340,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" s="1" t="s">
         <v>620</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>621</v>
       </c>
@@ -8357,7 +8362,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>622</v>
       </c>
@@ -8368,7 +8373,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>623</v>
       </c>
@@ -8379,7 +8384,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>624</v>
       </c>
@@ -8390,7 +8395,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>625</v>
       </c>
@@ -8401,7 +8406,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>626</v>
       </c>
@@ -8412,7 +8417,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" s="1" t="s">
         <v>627</v>
       </c>
@@ -8423,7 +8428,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" s="1" t="s">
         <v>628</v>
       </c>
@@ -8434,7 +8439,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" s="1" t="s">
         <v>629</v>
       </c>
@@ -8445,7 +8450,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" s="1" t="s">
         <v>630</v>
       </c>
@@ -8456,7 +8461,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" s="1" t="s">
         <v>631</v>
       </c>
@@ -8467,7 +8472,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>632</v>
       </c>
@@ -8478,7 +8483,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>633</v>
       </c>
@@ -8489,7 +8494,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3">
       <c r="A383" s="1" t="s">
         <v>634</v>
       </c>
@@ -8500,7 +8505,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3">
       <c r="A384" s="1" t="s">
         <v>635</v>
       </c>
@@ -8511,7 +8516,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3">
       <c r="A385" s="1" t="s">
         <v>636</v>
       </c>
@@ -8522,7 +8527,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3">
       <c r="A386" s="1" t="s">
         <v>637</v>
       </c>
@@ -8533,7 +8538,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3">
       <c r="A387" s="1" t="s">
         <v>638</v>
       </c>
@@ -8544,7 +8549,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3">
       <c r="A388" s="1" t="s">
         <v>639</v>
       </c>
@@ -8555,7 +8560,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3">
       <c r="A389" s="1" t="s">
         <v>640</v>
       </c>
@@ -8566,7 +8571,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3">
       <c r="A390" s="1" t="s">
         <v>641</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3">
       <c r="A391" s="1" t="s">
         <v>642</v>
       </c>
@@ -8588,7 +8593,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3">
       <c r="A392" s="1" t="s">
         <v>643</v>
       </c>
@@ -8599,7 +8604,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3">
       <c r="A393" s="1" t="s">
         <v>644</v>
       </c>
@@ -8610,7 +8615,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3">
       <c r="A394" s="1" t="s">
         <v>645</v>
       </c>
@@ -8621,7 +8626,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3">
       <c r="A395" s="1" t="s">
         <v>646</v>
       </c>
@@ -8632,7 +8637,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3">
       <c r="A396" s="1" t="s">
         <v>647</v>
       </c>
@@ -8643,7 +8648,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>648</v>
       </c>
@@ -8654,7 +8659,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>649</v>
       </c>
@@ -8665,7 +8670,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3">
       <c r="A399" s="1" t="s">
         <v>650</v>
       </c>
@@ -8676,7 +8681,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3">
       <c r="A400" s="1" t="s">
         <v>651</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>652</v>
       </c>
@@ -8698,7 +8703,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3">
       <c r="A402" s="1" t="s">
         <v>653</v>
       </c>
@@ -8709,7 +8714,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3">
       <c r="A403" s="1" t="s">
         <v>654</v>
       </c>
@@ -8720,7 +8725,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3">
       <c r="A404" s="1" t="s">
         <v>655</v>
       </c>
@@ -8731,7 +8736,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3">
       <c r="A405" s="1" t="s">
         <v>656</v>
       </c>
@@ -8742,7 +8747,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>657</v>
       </c>
@@ -8753,7 +8758,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>658</v>
       </c>
@@ -8764,7 +8769,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>659</v>
       </c>
@@ -8775,7 +8780,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>660</v>
       </c>
@@ -8786,7 +8791,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>661</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3">
       <c r="A411" s="1" t="s">
         <v>662</v>
       </c>
@@ -8808,7 +8813,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>663</v>
       </c>
@@ -8819,7 +8824,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>664</v>
       </c>
@@ -8830,7 +8835,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3">
       <c r="A414" s="1" t="s">
         <v>665</v>
       </c>
@@ -8841,7 +8846,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3">
       <c r="A415" s="1" t="s">
         <v>666</v>
       </c>
@@ -8852,7 +8857,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>667</v>
       </c>
@@ -8863,7 +8868,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>668</v>
       </c>
@@ -8874,7 +8879,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>669</v>
       </c>
@@ -8885,7 +8890,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3">
       <c r="A419" s="1" t="s">
         <v>670</v>
       </c>
@@ -8896,7 +8901,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
         <v>671</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3">
       <c r="A421" s="1" t="s">
         <v>672</v>
       </c>
@@ -8918,7 +8923,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3">
       <c r="A422" s="1" t="s">
         <v>673</v>
       </c>
@@ -8929,7 +8934,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3">
       <c r="A423" s="1" t="s">
         <v>674</v>
       </c>
@@ -8940,7 +8945,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3">
       <c r="A424" s="1" t="s">
         <v>675</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>676</v>
       </c>
@@ -8962,7 +8967,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>677</v>
       </c>
@@ -8973,7 +8978,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>678</v>
       </c>
@@ -8984,7 +8989,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>679</v>
       </c>
@@ -8995,7 +9000,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>680</v>
       </c>
@@ -9006,7 +9011,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>681</v>
       </c>
@@ -9017,7 +9022,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3">
       <c r="A431" s="1" t="s">
         <v>682</v>
       </c>
@@ -9028,7 +9033,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3">
       <c r="A432" s="1" t="s">
         <v>683</v>
       </c>
@@ -9039,7 +9044,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>684</v>
       </c>
@@ -9050,7 +9055,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>685</v>
       </c>
@@ -9061,7 +9066,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3">
       <c r="A435" s="1" t="s">
         <v>686</v>
       </c>
@@ -9072,7 +9077,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3">
       <c r="A436" s="1" t="s">
         <v>687</v>
       </c>
@@ -9083,7 +9088,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3">
       <c r="A437" s="1" t="s">
         <v>688</v>
       </c>
@@ -9094,7 +9099,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3">
       <c r="A438" s="1" t="s">
         <v>689</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>690</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3">
       <c r="A440" s="1" t="s">
         <v>691</v>
       </c>
@@ -9127,7 +9132,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3">
       <c r="A441" s="1" t="s">
         <v>692</v>
       </c>
@@ -9138,7 +9143,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3">
       <c r="A442" s="1" t="s">
         <v>693</v>
       </c>
@@ -9149,7 +9154,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3">
       <c r="A443" s="1" t="s">
         <v>694</v>
       </c>
@@ -9160,7 +9165,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3">
       <c r="A444" s="1" t="s">
         <v>695</v>
       </c>
@@ -9171,7 +9176,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3">
       <c r="A445" s="1" t="s">
         <v>696</v>
       </c>
@@ -9182,7 +9187,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3">
       <c r="A446" s="1" t="s">
         <v>697</v>
       </c>
@@ -9193,7 +9198,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>698</v>
       </c>
@@ -9204,7 +9209,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>699</v>
       </c>
@@ -9215,7 +9220,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
         <v>700</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3">
       <c r="A450" s="1" t="s">
         <v>701</v>
       </c>
@@ -9237,7 +9242,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3">
       <c r="A451" s="1" t="s">
         <v>702</v>
       </c>
@@ -9248,7 +9253,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3">
       <c r="A452" s="1" t="s">
         <v>703</v>
       </c>
@@ -9259,7 +9264,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>704</v>
       </c>
@@ -9270,7 +9275,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>705</v>
       </c>
@@ -9281,7 +9286,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>706</v>
       </c>
@@ -9292,7 +9297,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>707</v>
       </c>
@@ -9303,7 +9308,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
         <v>708</v>
       </c>
@@ -9314,7 +9319,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>709</v>
       </c>
@@ -9325,7 +9330,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>710</v>
       </c>
@@ -9336,7 +9341,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3">
       <c r="A460" s="1" t="s">
         <v>711</v>
       </c>
@@ -9347,7 +9352,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3">
       <c r="A461" s="1" t="s">
         <v>712</v>
       </c>
@@ -9358,7 +9363,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3">
       <c r="A462" s="1" t="s">
         <v>713</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3">
       <c r="A463" s="1" t="s">
         <v>714</v>
       </c>
@@ -9380,7 +9385,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>715</v>
       </c>
@@ -9391,7 +9396,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>716</v>
       </c>
@@ -9402,7 +9407,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
         <v>717</v>
       </c>
@@ -9413,7 +9418,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3">
       <c r="A467" s="1" t="s">
         <v>718</v>
       </c>
@@ -9424,7 +9429,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3">
       <c r="A468" s="1" t="s">
         <v>719</v>
       </c>
@@ -9435,7 +9440,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3">
       <c r="A469" s="1" t="s">
         <v>720</v>
       </c>
@@ -9446,7 +9451,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>721</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>722</v>
       </c>
@@ -9468,7 +9473,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>723</v>
       </c>
@@ -9479,7 +9484,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>724</v>
       </c>
@@ -9490,7 +9495,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3">
       <c r="A474" s="1" t="s">
         <v>725</v>
       </c>
@@ -9501,7 +9506,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>726</v>
       </c>
@@ -9512,7 +9517,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>727</v>
       </c>
@@ -9523,7 +9528,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
         <v>728</v>
       </c>
@@ -9534,7 +9539,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3">
       <c r="A478" s="1" t="s">
         <v>729</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3">
       <c r="A479" s="1" t="s">
         <v>730</v>
       </c>
@@ -9556,7 +9561,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3">
       <c r="A480" s="1" t="s">
         <v>731</v>
       </c>
@@ -9567,7 +9572,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3">
       <c r="A481" s="1" t="s">
         <v>732</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>733</v>
       </c>
@@ -9589,7 +9594,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
         <v>734</v>
       </c>
@@ -9600,7 +9605,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3">
       <c r="A484" s="1" t="s">
         <v>735</v>
       </c>
@@ -9611,7 +9616,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
         <v>736</v>
       </c>
@@ -9622,7 +9627,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>737</v>
       </c>
@@ -9633,7 +9638,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>738</v>
       </c>
@@ -9644,7 +9649,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>739</v>
       </c>
@@ -9655,7 +9660,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>740</v>
       </c>
@@ -9666,7 +9671,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3">
       <c r="A490" s="1" t="s">
         <v>741</v>
       </c>
@@ -9677,7 +9682,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
         <v>742</v>
       </c>
@@ -9688,7 +9693,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>743</v>
       </c>
@@ -9696,7 +9701,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>744</v>
       </c>
@@ -9707,7 +9712,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>745</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
         <v>746</v>
       </c>
@@ -9729,7 +9734,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>747</v>
       </c>
@@ -9740,7 +9745,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3">
       <c r="A497" s="1" t="s">
         <v>748</v>
       </c>
@@ -9751,7 +9756,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3">
       <c r="A498" s="1" t="s">
         <v>749</v>
       </c>
@@ -9762,7 +9767,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>750</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3">
       <c r="A500" s="1" t="s">
         <v>751</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3">
       <c r="A501" s="1" t="s">
         <v>752</v>
       </c>
@@ -9795,7 +9800,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3">
       <c r="A502" s="1" t="s">
         <v>753</v>
       </c>
@@ -9806,7 +9811,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>754</v>
       </c>
@@ -9817,7 +9822,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>755</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
         <v>756</v>
       </c>
@@ -9839,7 +9844,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3">
       <c r="A506" s="1" t="s">
         <v>757</v>
       </c>
@@ -9850,7 +9855,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3">
       <c r="A507" s="1" t="s">
         <v>758</v>
       </c>
@@ -9861,7 +9866,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>759</v>
       </c>
@@ -9872,7 +9877,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3">
       <c r="A509" s="1" t="s">
         <v>760</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3">
       <c r="A510" s="1" t="s">
         <v>761</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3">
       <c r="A511" s="1" t="s">
         <v>762</v>
       </c>
@@ -9905,7 +9910,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>763</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>764</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3">
       <c r="A514" s="1" t="s">
         <v>765</v>
       </c>
@@ -9938,7 +9943,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3">
       <c r="A515" s="1" t="s">
         <v>766</v>
       </c>
@@ -9949,7 +9954,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3">
       <c r="A516" s="1" t="s">
         <v>767</v>
       </c>
@@ -9960,7 +9965,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3">
       <c r="A517" s="1" t="s">
         <v>768</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3">
       <c r="A518" s="1" t="s">
         <v>769</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3">
       <c r="A519" s="1" t="s">
         <v>770</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3">
       <c r="A520" s="1" t="s">
         <v>771</v>
       </c>
@@ -10004,7 +10009,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3">
       <c r="A521" s="1" t="s">
         <v>772</v>
       </c>
@@ -10015,7 +10020,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>773</v>
       </c>
@@ -10026,7 +10031,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
         <v>774</v>
       </c>
@@ -10037,7 +10042,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3">
       <c r="A524" s="1" t="s">
         <v>775</v>
       </c>
@@ -10048,7 +10053,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3">
       <c r="A525" s="1" t="s">
         <v>776</v>
       </c>
@@ -10059,7 +10064,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3">
       <c r="A526" s="1" t="s">
         <v>777</v>
       </c>
@@ -10070,7 +10075,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3">
       <c r="A527" s="1" t="s">
         <v>778</v>
       </c>
@@ -10081,7 +10086,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
         <v>779</v>
       </c>
@@ -10092,7 +10097,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>780</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3">
       <c r="A530" s="1" t="s">
         <v>781</v>
       </c>
@@ -10114,7 +10119,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3">
       <c r="A531" s="1" t="s">
         <v>782</v>
       </c>
@@ -10125,7 +10130,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3">
       <c r="A532" s="1" t="s">
         <v>783</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3">
       <c r="A533" s="1" t="s">
         <v>784</v>
       </c>
@@ -10147,7 +10152,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3">
       <c r="A534" s="1" t="s">
         <v>785</v>
       </c>
@@ -10158,7 +10163,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
         <v>786</v>
       </c>
@@ -10169,7 +10174,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3">
       <c r="A536" s="1" t="s">
         <v>787</v>
       </c>
@@ -10180,7 +10185,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3">
       <c r="A537" s="1" t="s">
         <v>788</v>
       </c>
@@ -10191,7 +10196,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3">
       <c r="A538" s="1" t="s">
         <v>789</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3">
       <c r="A539" s="1" t="s">
         <v>790</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3">
       <c r="A540" s="1" t="s">
         <v>791</v>
       </c>
@@ -10224,7 +10229,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3">
       <c r="A541" s="1" t="s">
         <v>792</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3">
       <c r="A542" s="1" t="s">
         <v>793</v>
       </c>
@@ -10246,7 +10251,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3">
       <c r="A543" s="1" t="s">
         <v>794</v>
       </c>
@@ -10257,7 +10262,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
         <v>795</v>
       </c>
@@ -10268,7 +10273,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3">
       <c r="A545" s="1" t="s">
         <v>796</v>
       </c>
@@ -10279,7 +10284,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3">
       <c r="A546" s="1" t="s">
         <v>797</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
         <v>798</v>
       </c>
@@ -10301,7 +10306,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
         <v>799</v>
       </c>
@@ -10312,7 +10317,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3">
       <c r="A549" s="1" t="s">
         <v>800</v>
       </c>
@@ -10323,7 +10328,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3">
       <c r="A550" s="1" t="s">
         <v>801</v>
       </c>
@@ -10334,7 +10339,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3">
       <c r="A551" s="1" t="s">
         <v>802</v>
       </c>
@@ -10345,7 +10350,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>803</v>
       </c>
@@ -10356,7 +10361,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
         <v>804</v>
       </c>
@@ -10367,7 +10372,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3">
       <c r="A554" s="1" t="s">
         <v>805</v>
       </c>
@@ -10378,7 +10383,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3">
       <c r="A555" s="1" t="s">
         <v>806</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3">
       <c r="A556" s="1" t="s">
         <v>807</v>
       </c>
@@ -10400,7 +10405,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3">
       <c r="A557" s="1" t="s">
         <v>808</v>
       </c>
@@ -10411,7 +10416,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3">
       <c r="A558" s="1" t="s">
         <v>809</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3">
       <c r="A559" s="1" t="s">
         <v>810</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3">
       <c r="A560" s="1" t="s">
         <v>811</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3">
       <c r="A561" s="1" t="s">
         <v>812</v>
       </c>
@@ -10455,7 +10460,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3">
       <c r="A562" s="1" t="s">
         <v>813</v>
       </c>
@@ -10466,7 +10471,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3">
       <c r="A563" s="1" t="s">
         <v>814</v>
       </c>
@@ -10477,7 +10482,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3">
       <c r="A564" s="1" t="s">
         <v>815</v>
       </c>
@@ -10488,7 +10493,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3">
       <c r="A565" s="1" t="s">
         <v>816</v>
       </c>
@@ -10499,7 +10504,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3">
       <c r="A566" s="1" t="s">
         <v>817</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
         <v>818</v>
       </c>
@@ -10521,7 +10526,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3">
       <c r="A568" s="1" t="s">
         <v>819</v>
       </c>
@@ -10532,7 +10537,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3">
       <c r="A569" s="1" t="s">
         <v>820</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
         <v>821</v>
       </c>
@@ -10554,7 +10559,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3">
       <c r="A571" s="1" t="s">
         <v>822</v>
       </c>
@@ -10565,7 +10570,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3">
       <c r="A572" s="1" t="s">
         <v>823</v>
       </c>
@@ -10576,7 +10581,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3">
       <c r="A573" s="1" t="s">
         <v>824</v>
       </c>
@@ -10587,7 +10592,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3">
       <c r="A574" s="1" t="s">
         <v>825</v>
       </c>
@@ -10598,7 +10603,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3">
       <c r="A575" s="1" t="s">
         <v>826</v>
       </c>
@@ -10609,7 +10614,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
         <v>827</v>
       </c>
@@ -10620,7 +10625,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
         <v>828</v>
       </c>
@@ -10631,7 +10636,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3">
       <c r="A578" s="1" t="s">
         <v>829</v>
       </c>
@@ -10642,7 +10647,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3">
       <c r="A579" s="1" t="s">
         <v>830</v>
       </c>
@@ -10653,7 +10658,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
         <v>831</v>
       </c>
@@ -10664,7 +10669,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
         <v>832</v>
       </c>
@@ -10675,7 +10680,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
         <v>833</v>
       </c>
@@ -10686,7 +10691,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
         <v>834</v>
       </c>
@@ -10697,7 +10702,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3">
       <c r="A584" s="1" t="s">
         <v>835</v>
       </c>
@@ -10708,7 +10713,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3">
       <c r="A585" s="1" t="s">
         <v>836</v>
       </c>
@@ -10719,7 +10724,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3">
       <c r="A586" s="1" t="s">
         <v>837</v>
       </c>
@@ -10730,7 +10735,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
         <v>838</v>
       </c>
@@ -10741,7 +10746,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3">
       <c r="A588" s="1" t="s">
         <v>839</v>
       </c>
@@ -10752,7 +10757,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3">
       <c r="A589" s="1" t="s">
         <v>840</v>
       </c>
@@ -10763,7 +10768,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3">
       <c r="A590" s="1" t="s">
         <v>841</v>
       </c>
@@ -10774,7 +10779,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3">
       <c r="A591" s="1" t="s">
         <v>842</v>
       </c>
@@ -10785,7 +10790,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
         <v>843</v>
       </c>
@@ -10796,7 +10801,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
         <v>844</v>
       </c>
@@ -10807,7 +10812,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
         <v>845</v>
       </c>
@@ -10818,7 +10823,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3">
       <c r="A595" s="1" t="s">
         <v>846</v>
       </c>
@@ -10829,7 +10834,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3">
       <c r="A596" s="1" t="s">
         <v>847</v>
       </c>
@@ -10840,7 +10845,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3">
       <c r="A597" s="1" t="s">
         <v>848</v>
       </c>
@@ -10851,7 +10856,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3">
       <c r="A598" s="1" t="s">
         <v>849</v>
       </c>
@@ -10862,7 +10867,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3">
       <c r="A599" s="1" t="s">
         <v>850</v>
       </c>
@@ -10873,7 +10878,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
         <v>851</v>
       </c>
@@ -10884,7 +10889,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>852</v>
       </c>
@@ -10895,7 +10900,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>853</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3">
       <c r="A603" s="1" t="s">
         <v>854</v>
       </c>
@@ -10917,7 +10922,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3">
       <c r="A604" s="1" t="s">
         <v>855</v>
       </c>
@@ -10928,7 +10933,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3">
       <c r="A605" s="1" t="s">
         <v>856</v>
       </c>
@@ -10939,7 +10944,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
         <v>857</v>
       </c>
@@ -10950,7 +10955,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3">
       <c r="A607" s="1" t="s">
         <v>858</v>
       </c>
@@ -10961,7 +10966,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3">
       <c r="A608" s="1" t="s">
         <v>859</v>
       </c>
@@ -10972,7 +10977,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3">
       <c r="A609" s="1" t="s">
         <v>860</v>
       </c>
@@ -10983,7 +10988,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3">
       <c r="A610" s="1" t="s">
         <v>861</v>
       </c>
@@ -10994,7 +10999,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3">
       <c r="A611" s="1" t="s">
         <v>862</v>
       </c>
@@ -11005,7 +11010,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3">
       <c r="A612" s="1" t="s">
         <v>863</v>
       </c>
@@ -11016,7 +11021,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3">
       <c r="A613" s="1" t="s">
         <v>864</v>
       </c>
@@ -11027,7 +11032,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3">
       <c r="A614" s="1" t="s">
         <v>865</v>
       </c>
@@ -11038,7 +11043,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3">
       <c r="A615" s="1" t="s">
         <v>866</v>
       </c>
@@ -11049,7 +11054,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3">
       <c r="A616" s="1" t="s">
         <v>867</v>
       </c>
@@ -11060,7 +11065,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
         <v>868</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3">
       <c r="A618" s="1" t="s">
         <v>869</v>
       </c>
@@ -11082,7 +11087,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3">
       <c r="A619" s="1" t="s">
         <v>870</v>
       </c>
@@ -11093,7 +11098,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3">
       <c r="A620" s="1" t="s">
         <v>871</v>
       </c>
@@ -11104,7 +11109,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3">
       <c r="A621" s="1" t="s">
         <v>872</v>
       </c>
@@ -11115,7 +11120,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3">
       <c r="A622" s="1" t="s">
         <v>873</v>
       </c>
@@ -11126,7 +11131,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3">
       <c r="A623" s="1" t="s">
         <v>874</v>
       </c>
@@ -11137,7 +11142,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3">
       <c r="A624" s="1" t="s">
         <v>875</v>
       </c>
@@ -11148,7 +11153,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3">
       <c r="A625" s="1" t="s">
         <v>876</v>
       </c>
@@ -11159,7 +11164,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3">
       <c r="A626" s="1" t="s">
         <v>877</v>
       </c>
@@ -11170,7 +11175,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3">
       <c r="A627" s="1" t="s">
         <v>878</v>
       </c>
@@ -11181,7 +11186,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3">
       <c r="A628" s="1" t="s">
         <v>879</v>
       </c>
@@ -11192,7 +11197,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3">
       <c r="A629" s="1" t="s">
         <v>880</v>
       </c>
@@ -11203,7 +11208,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3">
       <c r="A630" s="1" t="s">
         <v>881</v>
       </c>
@@ -11214,7 +11219,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
         <v>882</v>
       </c>
@@ -11225,7 +11230,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
         <v>883</v>
       </c>
@@ -11236,7 +11241,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
         <v>884</v>
       </c>
@@ -11247,7 +11252,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
         <v>885</v>
       </c>
@@ -11258,7 +11263,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3">
       <c r="A635" s="1" t="s">
         <v>886</v>
       </c>
@@ -11269,7 +11274,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3">
       <c r="A636" s="1" t="s">
         <v>887</v>
       </c>
@@ -11280,7 +11285,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3">
       <c r="A637" s="1" t="s">
         <v>888</v>
       </c>
@@ -11291,7 +11296,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3">
       <c r="A638" s="1" t="s">
         <v>889</v>
       </c>
@@ -11302,7 +11307,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3">
       <c r="A639" s="1" t="s">
         <v>890</v>
       </c>
@@ -11313,7 +11318,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3">
       <c r="A640" s="1" t="s">
         <v>891</v>
       </c>
@@ -11324,7 +11329,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3">
       <c r="A641" s="1" t="s">
         <v>892</v>
       </c>
@@ -11335,7 +11340,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3">
       <c r="A642" s="1" t="s">
         <v>893</v>
       </c>
@@ -11346,7 +11351,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3">
       <c r="A643" s="1" t="s">
         <v>894</v>
       </c>
@@ -11357,7 +11362,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3">
       <c r="A644" s="1" t="s">
         <v>895</v>
       </c>
@@ -11368,7 +11373,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3">
       <c r="A645" s="1" t="s">
         <v>896</v>
       </c>
@@ -11379,7 +11384,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3">
       <c r="A646" s="1" t="s">
         <v>897</v>
       </c>
@@ -11390,7 +11395,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3">
       <c r="A647" s="1" t="s">
         <v>898</v>
       </c>
@@ -11401,7 +11406,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3">
       <c r="A648" s="1" t="s">
         <v>899</v>
       </c>
@@ -11412,7 +11417,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3">
       <c r="A649" s="1" t="s">
         <v>900</v>
       </c>
@@ -11423,7 +11428,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3">
       <c r="A650" s="1" t="s">
         <v>901</v>
       </c>
@@ -11434,7 +11439,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3">
       <c r="A651" s="1" t="s">
         <v>902</v>
       </c>
@@ -11445,7 +11450,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3">
       <c r="A652" s="1" t="s">
         <v>903</v>
       </c>
@@ -11456,7 +11461,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3">
       <c r="A653" s="1" t="s">
         <v>904</v>
       </c>
@@ -11467,7 +11472,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3">
       <c r="A654" s="1" t="s">
         <v>905</v>
       </c>
@@ -11478,7 +11483,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3">
       <c r="A655" s="1" t="s">
         <v>906</v>
       </c>
@@ -11489,7 +11494,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3">
       <c r="A656" s="1" t="s">
         <v>907</v>
       </c>
@@ -11500,7 +11505,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3">
       <c r="A657" s="1" t="s">
         <v>908</v>
       </c>
@@ -11511,7 +11516,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3">
       <c r="A658" s="1" t="s">
         <v>909</v>
       </c>
@@ -11522,7 +11527,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3">
       <c r="A659" s="1" t="s">
         <v>910</v>
       </c>
@@ -11533,7 +11538,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3">
       <c r="A660" s="1" t="s">
         <v>911</v>
       </c>
@@ -11544,7 +11549,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3">
       <c r="A661" s="1" t="s">
         <v>912</v>
       </c>
@@ -11555,7 +11560,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3">
       <c r="A662" s="1" t="s">
         <v>913</v>
       </c>
@@ -11566,7 +11571,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3">
       <c r="A663" s="1" t="s">
         <v>914</v>
       </c>
@@ -11577,7 +11582,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3">
       <c r="A664" s="1" t="s">
         <v>915</v>
       </c>
@@ -11588,7 +11593,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3">
       <c r="A665" s="1" t="s">
         <v>916</v>
       </c>
@@ -11599,7 +11604,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3">
       <c r="A666" s="1" t="s">
         <v>917</v>
       </c>
@@ -11610,7 +11615,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3">
       <c r="A667" s="1" t="s">
         <v>918</v>
       </c>
@@ -11621,7 +11626,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3">
       <c r="A668" s="1" t="s">
         <v>919</v>
       </c>
@@ -11632,7 +11637,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3">
       <c r="A669" s="1" t="s">
         <v>920</v>
       </c>
@@ -11643,7 +11648,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3">
       <c r="A670" s="1" t="s">
         <v>921</v>
       </c>
@@ -11654,7 +11659,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3">
       <c r="A671" s="1" t="s">
         <v>922</v>
       </c>
@@ -11665,7 +11670,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3">
       <c r="A672" s="1" t="s">
         <v>923</v>
       </c>
@@ -11676,7 +11681,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3">
       <c r="A673" s="1" t="s">
         <v>924</v>
       </c>
@@ -11687,7 +11692,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3">
       <c r="A674" s="1" t="s">
         <v>925</v>
       </c>
@@ -11698,7 +11703,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3">
       <c r="A675" s="1" t="s">
         <v>926</v>
       </c>
@@ -11709,7 +11714,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3">
       <c r="A676" s="1" t="s">
         <v>927</v>
       </c>
@@ -11720,7 +11725,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3">
       <c r="A677" s="1" t="s">
         <v>928</v>
       </c>
@@ -11731,7 +11736,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3">
       <c r="A678" s="1" t="s">
         <v>929</v>
       </c>
@@ -11742,7 +11747,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3">
       <c r="A679" s="1" t="s">
         <v>930</v>
       </c>
@@ -11753,7 +11758,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3">
       <c r="A680" s="1" t="s">
         <v>931</v>
       </c>
@@ -11764,7 +11769,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3">
       <c r="A681" s="1" t="s">
         <v>932</v>
       </c>
@@ -11775,7 +11780,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3">
       <c r="A682" s="1" t="s">
         <v>933</v>
       </c>
@@ -11786,7 +11791,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3">
       <c r="A683" s="1" t="s">
         <v>934</v>
       </c>
@@ -11797,7 +11802,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3">
       <c r="A684" s="1" t="s">
         <v>935</v>
       </c>
@@ -11808,7 +11813,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3">
       <c r="A685" s="1" t="s">
         <v>936</v>
       </c>
@@ -11819,7 +11824,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3">
       <c r="A686" s="1" t="s">
         <v>937</v>
       </c>
@@ -11830,7 +11835,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3">
       <c r="A687" s="1" t="s">
         <v>938</v>
       </c>
@@ -11841,7 +11846,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3">
       <c r="A688" s="1" t="s">
         <v>939</v>
       </c>
@@ -11852,7 +11857,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3">
       <c r="A689" s="1" t="s">
         <v>940</v>
       </c>
@@ -11863,7 +11868,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3">
       <c r="A690" s="1" t="s">
         <v>941</v>
       </c>
@@ -11874,7 +11879,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3">
       <c r="A691" s="1" t="s">
         <v>942</v>
       </c>
@@ -11885,7 +11890,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3">
       <c r="A692" s="1" t="s">
         <v>943</v>
       </c>
@@ -11896,7 +11901,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3">
       <c r="A693" s="1" t="s">
         <v>944</v>
       </c>
@@ -11907,7 +11912,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3">
       <c r="A694" s="1" t="s">
         <v>945</v>
       </c>
@@ -11918,7 +11923,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3">
       <c r="A695" s="1" t="s">
         <v>946</v>
       </c>
@@ -11929,7 +11934,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3">
       <c r="A696" s="1" t="s">
         <v>947</v>
       </c>
@@ -11940,7 +11945,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3">
       <c r="A697" s="1" t="s">
         <v>948</v>
       </c>
@@ -11951,7 +11956,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3">
       <c r="A698" s="1" t="s">
         <v>949</v>
       </c>
@@ -11962,7 +11967,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3">
       <c r="A699" s="1" t="s">
         <v>950</v>
       </c>
@@ -11973,7 +11978,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3">
       <c r="A700" s="1" t="s">
         <v>951</v>
       </c>
@@ -11984,7 +11989,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3">
       <c r="A701" s="1" t="s">
         <v>952</v>
       </c>
@@ -11995,7 +12000,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3">
       <c r="A702" s="1" t="s">
         <v>953</v>
       </c>
@@ -12006,7 +12011,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3">
       <c r="A703" s="1" t="s">
         <v>954</v>
       </c>
@@ -12017,7 +12022,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3">
       <c r="A704" s="1" t="s">
         <v>955</v>
       </c>
@@ -12028,7 +12033,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3">
       <c r="A705" s="1" t="s">
         <v>956</v>
       </c>
@@ -12039,7 +12044,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3">
       <c r="A706" s="1" t="s">
         <v>957</v>
       </c>
@@ -12050,7 +12055,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3">
       <c r="A707" s="1" t="s">
         <v>958</v>
       </c>
@@ -12061,7 +12066,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3">
       <c r="A708" s="1" t="s">
         <v>959</v>
       </c>
@@ -12072,7 +12077,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3">
       <c r="A709" s="1" t="s">
         <v>960</v>
       </c>
@@ -12083,7 +12088,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3">
       <c r="A710" s="1" t="s">
         <v>961</v>
       </c>
@@ -12094,7 +12099,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3">
       <c r="A711" s="1" t="s">
         <v>962</v>
       </c>
@@ -12105,7 +12110,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3">
       <c r="A712" s="1" t="s">
         <v>963</v>
       </c>
@@ -12116,7 +12121,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3">
       <c r="A713" s="1" t="s">
         <v>964</v>
       </c>
@@ -12127,7 +12132,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3">
       <c r="A714" s="1" t="s">
         <v>965</v>
       </c>
@@ -12138,7 +12143,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3">
       <c r="A715" s="1" t="s">
         <v>966</v>
       </c>
@@ -12149,7 +12154,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3">
       <c r="A716" s="1" t="s">
         <v>967</v>
       </c>
@@ -12160,7 +12165,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3">
       <c r="A717" s="1" t="s">
         <v>968</v>
       </c>
@@ -12171,7 +12176,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3">
       <c r="A718" s="1" t="s">
         <v>969</v>
       </c>
@@ -12182,7 +12187,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3">
       <c r="A719" s="1" t="s">
         <v>970</v>
       </c>
@@ -12193,7 +12198,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3">
       <c r="A720" s="1" t="s">
         <v>971</v>
       </c>
@@ -12204,7 +12209,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3">
       <c r="A721" s="1" t="s">
         <v>972</v>
       </c>
@@ -12215,7 +12220,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3">
       <c r="A722" s="1" t="s">
         <v>973</v>
       </c>
@@ -12226,7 +12231,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3">
       <c r="A723" s="1" t="s">
         <v>974</v>
       </c>
@@ -12237,7 +12242,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3">
       <c r="A724" s="1" t="s">
         <v>975</v>
       </c>
@@ -12248,7 +12253,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3">
       <c r="A725" s="1" t="s">
         <v>976</v>
       </c>
@@ -12259,7 +12264,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3">
       <c r="A726" s="1" t="s">
         <v>977</v>
       </c>
@@ -12270,7 +12275,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3">
       <c r="A727" s="1" t="s">
         <v>978</v>
       </c>
@@ -12281,7 +12286,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3">
       <c r="A728" s="1" t="s">
         <v>979</v>
       </c>
@@ -12292,7 +12297,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3">
       <c r="A729" s="1" t="s">
         <v>980</v>
       </c>
@@ -12303,7 +12308,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3">
       <c r="A730" s="1" t="s">
         <v>981</v>
       </c>
@@ -12314,7 +12319,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3">
       <c r="A731" s="1" t="s">
         <v>982</v>
       </c>
@@ -12325,7 +12330,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3">
       <c r="A732" s="1" t="s">
         <v>983</v>
       </c>
@@ -12336,7 +12341,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3">
       <c r="A733" s="1" t="s">
         <v>984</v>
       </c>
@@ -12347,7 +12352,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3">
       <c r="A734" s="1" t="s">
         <v>985</v>
       </c>
@@ -12358,7 +12363,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3">
       <c r="A735" s="1" t="s">
         <v>986</v>
       </c>
@@ -12369,7 +12374,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3">
       <c r="A736" s="1" t="s">
         <v>987</v>
       </c>
@@ -12380,7 +12385,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3">
       <c r="A737" s="1" t="s">
         <v>988</v>
       </c>
@@ -12391,7 +12396,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3">
       <c r="A738" s="1" t="s">
         <v>989</v>
       </c>
@@ -12402,7 +12407,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3">
       <c r="A739" s="1" t="s">
         <v>990</v>
       </c>
@@ -12413,7 +12418,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3">
       <c r="A740" s="1" t="s">
         <v>991</v>
       </c>
@@ -12424,7 +12429,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3">
       <c r="A741" s="1" t="s">
         <v>992</v>
       </c>
@@ -12435,7 +12440,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3">
       <c r="A742" s="1" t="s">
         <v>993</v>
       </c>
@@ -12446,7 +12451,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3">
       <c r="A743" s="1" t="s">
         <v>994</v>
       </c>
@@ -12457,7 +12462,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3">
       <c r="A744" s="1" t="s">
         <v>995</v>
       </c>
@@ -12468,7 +12473,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3">
       <c r="A745" s="1" t="s">
         <v>996</v>
       </c>
@@ -12479,7 +12484,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3">
       <c r="A746" s="1" t="s">
         <v>997</v>
       </c>
@@ -12490,7 +12495,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3">
       <c r="A747" s="1" t="s">
         <v>998</v>
       </c>
@@ -12501,7 +12506,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3">
       <c r="A748" s="1" t="s">
         <v>999</v>
       </c>
@@ -12512,7 +12517,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3">
       <c r="A749" s="1" t="s">
         <v>1000</v>
       </c>
@@ -12523,7 +12528,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3">
       <c r="A750" s="1" t="s">
         <v>1001</v>
       </c>
@@ -12534,7 +12539,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3">
       <c r="A751" s="1" t="s">
         <v>1002</v>
       </c>
@@ -12545,7 +12550,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3">
       <c r="A752" s="1" t="s">
         <v>1003</v>
       </c>
@@ -12556,7 +12561,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3">
       <c r="A753" s="1" t="s">
         <v>1004</v>
       </c>
@@ -12567,7 +12572,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3">
       <c r="A754" s="1" t="s">
         <v>1005</v>
       </c>
@@ -12578,7 +12583,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3">
       <c r="A755" s="1" t="s">
         <v>1006</v>
       </c>
@@ -12589,7 +12594,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3">
       <c r="A756" s="1" t="s">
         <v>1007</v>
       </c>
@@ -12600,7 +12605,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3">
       <c r="A757" s="1" t="s">
         <v>1008</v>
       </c>
@@ -12611,7 +12616,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3">
       <c r="A758" s="1" t="s">
         <v>1009</v>
       </c>
@@ -12622,7 +12627,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3">
       <c r="A759" s="1" t="s">
         <v>1010</v>
       </c>
@@ -12633,7 +12638,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3">
       <c r="A760" s="1" t="s">
         <v>1011</v>
       </c>
@@ -12644,7 +12649,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3">
       <c r="A761" s="1" t="s">
         <v>1012</v>
       </c>
@@ -12655,7 +12660,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3">
       <c r="A762" s="1" t="s">
         <v>1013</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3">
       <c r="A763" s="1" t="s">
         <v>1014</v>
       </c>
@@ -12677,7 +12682,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3">
       <c r="A764" s="1" t="s">
         <v>1015</v>
       </c>
@@ -12688,7 +12693,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3">
       <c r="A765" s="1" t="s">
         <v>1016</v>
       </c>
@@ -12699,7 +12704,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3">
       <c r="A766" s="1" t="s">
         <v>1017</v>
       </c>
@@ -12710,7 +12715,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3">
       <c r="A767" s="1" t="s">
         <v>1018</v>
       </c>
@@ -12721,7 +12726,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3">
       <c r="A768" s="1" t="s">
         <v>1019</v>
       </c>
@@ -12732,7 +12737,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3">
       <c r="A769" s="1" t="s">
         <v>1020</v>
       </c>
@@ -12743,7 +12748,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3">
       <c r="A770" s="1" t="s">
         <v>1021</v>
       </c>
@@ -12754,7 +12759,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3">
       <c r="A771" s="1" t="s">
         <v>1022</v>
       </c>
@@ -12765,7 +12770,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3">
       <c r="A772" s="1" t="s">
         <v>1023</v>
       </c>
@@ -12776,7 +12781,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3">
       <c r="A773" s="1" t="s">
         <v>1024</v>
       </c>
@@ -12784,7 +12789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3">
       <c r="A774" s="1" t="s">
         <v>1025</v>
       </c>
@@ -12795,7 +12800,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3">
       <c r="A775" s="1" t="s">
         <v>1026</v>
       </c>
@@ -12806,7 +12811,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3">
       <c r="A776" s="1" t="s">
         <v>1027</v>
       </c>
@@ -12817,7 +12822,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3">
       <c r="A777" s="1" t="s">
         <v>1028</v>
       </c>
@@ -12828,7 +12833,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3">
       <c r="A778" s="1" t="s">
         <v>1029</v>
       </c>
@@ -12839,7 +12844,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3">
       <c r="A779" s="1" t="s">
         <v>1030</v>
       </c>
@@ -12850,7 +12855,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3">
       <c r="A780" s="1" t="s">
         <v>1031</v>
       </c>
@@ -12861,7 +12866,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3">
       <c r="A781" s="1" t="s">
         <v>1032</v>
       </c>
@@ -12872,7 +12877,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3">
       <c r="A782" s="1" t="s">
         <v>1033</v>
       </c>
@@ -12883,7 +12888,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3">
       <c r="A783" s="1" t="s">
         <v>1034</v>
       </c>
@@ -12894,7 +12899,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3">
       <c r="A784" s="1" t="s">
         <v>1035</v>
       </c>
@@ -12905,7 +12910,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3">
       <c r="A785" s="1" t="s">
         <v>1036</v>
       </c>
@@ -12916,7 +12921,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3">
       <c r="A786" s="1" t="s">
         <v>1037</v>
       </c>
@@ -12927,7 +12932,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3">
       <c r="A787" s="1" t="s">
         <v>1038</v>
       </c>
@@ -12938,7 +12943,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3">
       <c r="A788" s="1" t="s">
         <v>1039</v>
       </c>
@@ -12949,7 +12954,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3">
       <c r="A789" s="1" t="s">
         <v>1040</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3">
       <c r="A790" s="1" t="s">
         <v>1041</v>
       </c>
@@ -12971,7 +12976,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3">
       <c r="A791" s="1" t="s">
         <v>1042</v>
       </c>
@@ -12982,7 +12987,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3">
       <c r="A792" s="1" t="s">
         <v>1043</v>
       </c>
@@ -12993,7 +12998,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3">
       <c r="A793" s="1" t="s">
         <v>1044</v>
       </c>
@@ -13004,7 +13009,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3">
       <c r="A794" s="1" t="s">
         <v>1045</v>
       </c>
@@ -13015,7 +13020,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3">
       <c r="A795" s="1" t="s">
         <v>1046</v>
       </c>
@@ -13026,7 +13031,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3">
       <c r="A796" s="1" t="s">
         <v>1047</v>
       </c>
@@ -13037,7 +13042,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3">
       <c r="A797" s="1" t="s">
         <v>1048</v>
       </c>
@@ -13048,7 +13053,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3">
       <c r="A798" s="1" t="s">
         <v>1049</v>
       </c>
@@ -13059,7 +13064,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3">
       <c r="A799" s="1" t="s">
         <v>1050</v>
       </c>
@@ -13070,7 +13075,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3">
       <c r="A800" s="1" t="s">
         <v>1051</v>
       </c>
@@ -13081,7 +13086,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3">
       <c r="A801" s="1" t="s">
         <v>1052</v>
       </c>
@@ -13092,7 +13097,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3">
       <c r="A802" s="1" t="s">
         <v>1053</v>
       </c>
@@ -13103,7 +13108,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3">
       <c r="A803" s="1" t="s">
         <v>1054</v>
       </c>
@@ -13114,7 +13119,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3">
       <c r="A804" s="1" t="s">
         <v>1055</v>
       </c>
@@ -13125,7 +13130,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3">
       <c r="A805" s="1" t="s">
         <v>1056</v>
       </c>
@@ -13136,7 +13141,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3">
       <c r="A806" s="1" t="s">
         <v>1057</v>
       </c>
@@ -13147,7 +13152,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3">
       <c r="A807" s="1" t="s">
         <v>1058</v>
       </c>
@@ -13158,7 +13163,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3">
       <c r="A808" s="1" t="s">
         <v>1059</v>
       </c>
@@ -13169,7 +13174,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3">
       <c r="A809" s="1" t="s">
         <v>1060</v>
       </c>
@@ -13180,7 +13185,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3">
       <c r="A810" s="1" t="s">
         <v>1061</v>
       </c>
@@ -13191,7 +13196,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3">
       <c r="A811" s="1" t="s">
         <v>1062</v>
       </c>
@@ -13202,7 +13207,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3">
       <c r="A812" s="1" t="s">
         <v>1063</v>
       </c>
@@ -13213,7 +13218,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3">
       <c r="A813" s="1" t="s">
         <v>1064</v>
       </c>
@@ -13224,7 +13229,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3">
       <c r="A814" s="1" t="s">
         <v>1065</v>
       </c>
@@ -13235,7 +13240,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3">
       <c r="A815" s="1" t="s">
         <v>1066</v>
       </c>
@@ -13246,7 +13251,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3">
       <c r="A816" s="1" t="s">
         <v>1067</v>
       </c>
@@ -13257,7 +13262,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3">
       <c r="A817" s="1" t="s">
         <v>1068</v>
       </c>
@@ -13268,7 +13273,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3">
       <c r="A818" s="1" t="s">
         <v>1069</v>
       </c>
@@ -13279,7 +13284,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3">
       <c r="A819" s="1" t="s">
         <v>1070</v>
       </c>
@@ -13290,7 +13295,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3">
       <c r="A820" s="1" t="s">
         <v>1071</v>
       </c>
@@ -13301,7 +13306,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3">
       <c r="A821" s="1" t="s">
         <v>1072</v>
       </c>
@@ -13312,7 +13317,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3">
       <c r="A822" s="1" t="s">
         <v>1073</v>
       </c>
@@ -13323,7 +13328,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3">
       <c r="A823" s="1" t="s">
         <v>1074</v>
       </c>
@@ -13334,7 +13339,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3">
       <c r="A824" s="1" t="s">
         <v>1075</v>
       </c>
@@ -13345,7 +13350,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3">
       <c r="A825" s="1" t="s">
         <v>1076</v>
       </c>
@@ -13356,7 +13361,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3">
       <c r="A826" s="1" t="s">
         <v>1077</v>
       </c>
@@ -13367,7 +13372,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3">
       <c r="A827" s="1" t="s">
         <v>1078</v>
       </c>
@@ -13378,7 +13383,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3">
       <c r="A828" s="1" t="s">
         <v>1079</v>
       </c>
@@ -13389,7 +13394,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3">
       <c r="A829" s="1" t="s">
         <v>1080</v>
       </c>
@@ -13400,7 +13405,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3">
       <c r="A830" s="1" t="s">
         <v>1081</v>
       </c>
@@ -13411,7 +13416,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3">
       <c r="A831" s="1" t="s">
         <v>1082</v>
       </c>
@@ -13422,7 +13427,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3">
       <c r="A832" s="1" t="s">
         <v>1083</v>
       </c>
@@ -13433,7 +13438,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3">
       <c r="A833" s="1" t="s">
         <v>1084</v>
       </c>
@@ -13444,7 +13449,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3">
       <c r="A834" s="1" t="s">
         <v>1085</v>
       </c>
@@ -13455,7 +13460,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3">
       <c r="A835" s="1" t="s">
         <v>1086</v>
       </c>
@@ -13466,7 +13471,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3">
       <c r="A836" s="1" t="s">
         <v>1087</v>
       </c>
@@ -13477,7 +13482,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3">
       <c r="A837" s="1" t="s">
         <v>1088</v>
       </c>
@@ -13488,7 +13493,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3">
       <c r="A838" s="1" t="s">
         <v>1089</v>
       </c>
@@ -13499,7 +13504,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3">
       <c r="A839" s="1" t="s">
         <v>1090</v>
       </c>
@@ -13510,7 +13515,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3">
       <c r="A840" s="1" t="s">
         <v>1091</v>
       </c>
@@ -13521,7 +13526,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3">
       <c r="A841" s="1" t="s">
         <v>1092</v>
       </c>
@@ -13532,7 +13537,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3">
       <c r="A842" s="1" t="s">
         <v>1093</v>
       </c>
@@ -13543,7 +13548,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3">
       <c r="A843" s="1" t="s">
         <v>1094</v>
       </c>
@@ -13554,7 +13559,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3">
       <c r="A844" s="1" t="s">
         <v>1095</v>
       </c>
@@ -13565,7 +13570,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3">
       <c r="A845" s="1" t="s">
         <v>1096</v>
       </c>
@@ -13576,7 +13581,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3">
       <c r="A846" s="1" t="s">
         <v>1097</v>
       </c>
@@ -13587,7 +13592,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3">
       <c r="A847" s="1" t="s">
         <v>1098</v>
       </c>
@@ -13598,7 +13603,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3">
       <c r="A848" s="1" t="s">
         <v>1099</v>
       </c>
@@ -13609,7 +13614,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3">
       <c r="A849" s="1" t="s">
         <v>1100</v>
       </c>
@@ -13620,7 +13625,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3">
       <c r="A850" s="1" t="s">
         <v>1101</v>
       </c>
@@ -13631,7 +13636,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3">
       <c r="A851" s="1" t="s">
         <v>1102</v>
       </c>
@@ -13642,7 +13647,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3">
       <c r="A852" s="1" t="s">
         <v>1103</v>
       </c>
@@ -13653,7 +13658,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3">
       <c r="A853" s="1" t="s">
         <v>1104</v>
       </c>
@@ -13664,7 +13669,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3">
       <c r="A854" s="1" t="s">
         <v>1105</v>
       </c>
@@ -13675,7 +13680,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="855" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:3">
       <c r="A855" s="1" t="s">
         <v>1106</v>
       </c>
@@ -13686,7 +13691,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="856" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:3">
       <c r="A856" s="1" t="s">
         <v>1107</v>
       </c>
@@ -13697,7 +13702,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="857" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:3">
       <c r="A857" s="1" t="s">
         <v>1108</v>
       </c>
@@ -13708,7 +13713,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="858" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:3">
       <c r="A858" s="1" t="s">
         <v>1109</v>
       </c>
@@ -13719,7 +13724,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:3">
       <c r="A859" s="1" t="s">
         <v>1110</v>
       </c>
@@ -13730,7 +13735,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="860" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:3">
       <c r="A860" s="1" t="s">
         <v>1111</v>
       </c>
@@ -13741,7 +13746,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="861" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:3">
       <c r="A861" s="1" t="s">
         <v>1112</v>
       </c>
@@ -13752,7 +13757,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="862" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:3">
       <c r="A862" s="1" t="s">
         <v>1113</v>
       </c>
@@ -13763,7 +13768,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="863" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:3">
       <c r="A863" s="1" t="s">
         <v>1114</v>
       </c>
@@ -13774,7 +13779,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="864" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:3">
       <c r="A864" s="1" t="s">
         <v>1115</v>
       </c>
@@ -13785,7 +13790,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="865" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:3">
       <c r="A865" s="1" t="s">
         <v>1116</v>
       </c>
@@ -13796,7 +13801,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="866" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:3">
       <c r="A866" s="1" t="s">
         <v>1117</v>
       </c>
@@ -13807,7 +13812,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="867" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:3">
       <c r="A867" s="1" t="s">
         <v>1118</v>
       </c>
@@ -13818,7 +13823,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="868" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:3">
       <c r="A868" s="1" t="s">
         <v>1119</v>
       </c>
@@ -13829,7 +13834,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="869" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:3">
       <c r="A869" s="1" t="s">
         <v>1120</v>
       </c>
@@ -13840,7 +13845,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="870" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:3">
       <c r="A870" s="1" t="s">
         <v>1121</v>
       </c>
@@ -13851,7 +13856,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="871" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:3">
       <c r="A871" s="1" t="s">
         <v>1122</v>
       </c>
@@ -13862,7 +13867,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="872" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:3">
       <c r="A872" s="1" t="s">
         <v>1123</v>
       </c>
@@ -13873,7 +13878,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="873" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:3">
       <c r="A873" s="1" t="s">
         <v>1124</v>
       </c>
@@ -13884,7 +13889,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="874" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:3">
       <c r="A874" s="1" t="s">
         <v>1125</v>
       </c>
@@ -13895,7 +13900,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="875" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:3">
       <c r="A875" s="1" t="s">
         <v>1126</v>
       </c>
@@ -13906,7 +13911,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="876" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:3">
       <c r="A876" s="1" t="s">
         <v>1127</v>
       </c>
@@ -13917,7 +13922,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="877" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:3">
       <c r="A877" s="1" t="s">
         <v>1128</v>
       </c>
@@ -13928,7 +13933,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="878" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:3">
       <c r="A878" s="1" t="s">
         <v>1129</v>
       </c>
@@ -13939,7 +13944,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="879" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:3">
       <c r="A879" s="1" t="s">
         <v>1130</v>
       </c>
@@ -13950,7 +13955,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="880" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:3">
       <c r="A880" s="1" t="s">
         <v>1131</v>
       </c>
@@ -13961,7 +13966,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="881" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:3">
       <c r="A881" s="1" t="s">
         <v>1132</v>
       </c>
@@ -13972,7 +13977,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="882" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:3">
       <c r="A882" s="1" t="s">
         <v>1133</v>
       </c>
@@ -13983,7 +13988,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="883" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:3">
       <c r="A883" s="1" t="s">
         <v>1134</v>
       </c>
@@ -13994,7 +13999,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="884" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:3">
       <c r="A884" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14005,7 +14010,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="885" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:3">
       <c r="A885" s="1" t="s">
         <v>1136</v>
       </c>
@@ -14016,7 +14021,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="886" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:3">
       <c r="A886" s="1" t="s">
         <v>1137</v>
       </c>
@@ -14027,7 +14032,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="887" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:3">
       <c r="A887" s="1" t="s">
         <v>1138</v>
       </c>
@@ -14038,7 +14043,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="888" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:3">
       <c r="A888" s="1" t="s">
         <v>1139</v>
       </c>
@@ -14049,7 +14054,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="889" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:3">
       <c r="A889" s="1" t="s">
         <v>1140</v>
       </c>
@@ -14060,7 +14065,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="890" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:3">
       <c r="A890" s="1" t="s">
         <v>1141</v>
       </c>
@@ -14071,7 +14076,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="891" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:3">
       <c r="A891" s="1" t="s">
         <v>1142</v>
       </c>
@@ -14082,7 +14087,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="892" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:3">
       <c r="A892" s="1" t="s">
         <v>1143</v>
       </c>
@@ -14093,7 +14098,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="893" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:3">
       <c r="A893" s="1" t="s">
         <v>1144</v>
       </c>
@@ -14104,7 +14109,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="894" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:3">
       <c r="A894" s="1" t="s">
         <v>1145</v>
       </c>
@@ -14115,7 +14120,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="895" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:3">
       <c r="A895" s="1" t="s">
         <v>1146</v>
       </c>
@@ -14126,7 +14131,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="896" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:3">
       <c r="A896" s="1" t="s">
         <v>1147</v>
       </c>
@@ -14137,7 +14142,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="897" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:3">
       <c r="A897" s="1" t="s">
         <v>1148</v>
       </c>
@@ -14148,7 +14153,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="898" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:3">
       <c r="A898" s="1" t="s">
         <v>1149</v>
       </c>
@@ -14159,7 +14164,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="899" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:3">
       <c r="A899" s="1" t="s">
         <v>1150</v>
       </c>
@@ -14170,7 +14175,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="900" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:3">
       <c r="A900" s="1" t="s">
         <v>1151</v>
       </c>
@@ -14181,7 +14186,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="901" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:3">
       <c r="A901" s="1" t="s">
         <v>1152</v>
       </c>
@@ -14192,7 +14197,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="902" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:3">
       <c r="A902" s="1" t="s">
         <v>1153</v>
       </c>
@@ -14203,7 +14208,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="903" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:3">
       <c r="A903" s="1" t="s">
         <v>1154</v>
       </c>
@@ -14214,7 +14219,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="904" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:3">
       <c r="A904" s="1" t="s">
         <v>1155</v>
       </c>
@@ -14225,7 +14230,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="905" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:3">
       <c r="A905" s="1" t="s">
         <v>1156</v>
       </c>
@@ -14236,7 +14241,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="906" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:3">
       <c r="A906" s="1" t="s">
         <v>1157</v>
       </c>
@@ -14247,7 +14252,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="907" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:3">
       <c r="A907" s="1" t="s">
         <v>1158</v>
       </c>
@@ -14258,7 +14263,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="908" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:3">
       <c r="A908" s="1" t="s">
         <v>1159</v>
       </c>
@@ -14269,7 +14274,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="909" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:3">
       <c r="A909" s="1" t="s">
         <v>1160</v>
       </c>
@@ -14280,7 +14285,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="910" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:3">
       <c r="A910" s="1" t="s">
         <v>1161</v>
       </c>
@@ -14291,7 +14296,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="911" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:3">
       <c r="A911" s="1" t="s">
         <v>1162</v>
       </c>
@@ -14302,7 +14307,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="912" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:3">
       <c r="A912" s="1" t="s">
         <v>1163</v>
       </c>
@@ -14313,7 +14318,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="913" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:3">
       <c r="A913" s="1" t="s">
         <v>1164</v>
       </c>
@@ -14324,7 +14329,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="914" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:3">
       <c r="A914" s="1" t="s">
         <v>1165</v>
       </c>
@@ -14335,7 +14340,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="915" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:3">
       <c r="A915" s="1" t="s">
         <v>1166</v>
       </c>
@@ -14346,7 +14351,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="916" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:3">
       <c r="A916" s="1" t="s">
         <v>1167</v>
       </c>
@@ -14357,7 +14362,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="917" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:3">
       <c r="A917" s="1" t="s">
         <v>1168</v>
       </c>
@@ -14368,7 +14373,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="918" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:3">
       <c r="A918" s="1" t="s">
         <v>1169</v>
       </c>
@@ -14379,7 +14384,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="919" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:3">
       <c r="A919" s="1" t="s">
         <v>1170</v>
       </c>
@@ -14390,7 +14395,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="920" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:3">
       <c r="A920" s="1" t="s">
         <v>1171</v>
       </c>
@@ -14401,7 +14406,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="921" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:3">
       <c r="A921" s="1" t="s">
         <v>1172</v>
       </c>
@@ -14412,7 +14417,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="922" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:3">
       <c r="A922" s="1" t="s">
         <v>1173</v>
       </c>
@@ -14423,7 +14428,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="923" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:3">
       <c r="A923" s="1" t="s">
         <v>1174</v>
       </c>
@@ -14434,7 +14439,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="924" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:3">
       <c r="A924" s="1" t="s">
         <v>1175</v>
       </c>
@@ -14445,7 +14450,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="925" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:3">
       <c r="A925" s="1" t="s">
         <v>1176</v>
       </c>
@@ -14456,7 +14461,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="926" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:3">
       <c r="A926" s="1" t="s">
         <v>1177</v>
       </c>
@@ -14467,7 +14472,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="927" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:3">
       <c r="A927" s="1" t="s">
         <v>1178</v>
       </c>
@@ -14478,7 +14483,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="928" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:3">
       <c r="A928" s="1" t="s">
         <v>1179</v>
       </c>
@@ -14489,7 +14494,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="929" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:3">
       <c r="A929" s="1" t="s">
         <v>1180</v>
       </c>
@@ -14500,7 +14505,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="930" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:3">
       <c r="A930" s="1" t="s">
         <v>1181</v>
       </c>
@@ -14511,7 +14516,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="931" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:3">
       <c r="A931" s="1" t="s">
         <v>1182</v>
       </c>
@@ -14522,7 +14527,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="932" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:3">
       <c r="A932" s="1" t="s">
         <v>1183</v>
       </c>
@@ -14533,7 +14538,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="933" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:3">
       <c r="A933" s="1" t="s">
         <v>1184</v>
       </c>
@@ -14544,7 +14549,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="934" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:3">
       <c r="A934" s="1" t="s">
         <v>1185</v>
       </c>
@@ -14555,7 +14560,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="935" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:3">
       <c r="A935" s="1" t="s">
         <v>1186</v>
       </c>
@@ -14566,7 +14571,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="936" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:3">
       <c r="A936" s="1" t="s">
         <v>1187</v>
       </c>
@@ -14577,7 +14582,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="937" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:3">
       <c r="A937" s="1" t="s">
         <v>1188</v>
       </c>
@@ -14588,7 +14593,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="938" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:3">
       <c r="A938" s="1" t="s">
         <v>1189</v>
       </c>
@@ -14599,7 +14604,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="939" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:3">
       <c r="A939" s="1" t="s">
         <v>1190</v>
       </c>
@@ -14610,7 +14615,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="940" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:3">
       <c r="A940" s="1" t="s">
         <v>1191</v>
       </c>
@@ -14621,7 +14626,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="941" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:3">
       <c r="A941" s="1" t="s">
         <v>1192</v>
       </c>
@@ -14632,7 +14637,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="942" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:3">
       <c r="A942" s="1" t="s">
         <v>1193</v>
       </c>
@@ -14643,7 +14648,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="943" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:3">
       <c r="A943" s="1" t="s">
         <v>1194</v>
       </c>
@@ -14654,7 +14659,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="944" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:3">
       <c r="A944" s="1" t="s">
         <v>1195</v>
       </c>
@@ -14665,7 +14670,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="945" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:3">
       <c r="A945" s="1" t="s">
         <v>1196</v>
       </c>
@@ -14676,7 +14681,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="946" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:3">
       <c r="A946" s="1" t="s">
         <v>1197</v>
       </c>
@@ -14687,7 +14692,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="947" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:3">
       <c r="A947" s="1" t="s">
         <v>1198</v>
       </c>
@@ -14698,7 +14703,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="948" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:3">
       <c r="A948" s="1" t="s">
         <v>1199</v>
       </c>
@@ -14709,7 +14714,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="949" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:3">
       <c r="A949" s="1" t="s">
         <v>1200</v>
       </c>
@@ -14720,7 +14725,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="950" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:3">
       <c r="A950" s="1" t="s">
         <v>1201</v>
       </c>
@@ -14731,7 +14736,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="951" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:3">
       <c r="A951" s="1" t="s">
         <v>1202</v>
       </c>
@@ -14742,7 +14747,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="952" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:3">
       <c r="A952" s="1" t="s">
         <v>1203</v>
       </c>
@@ -14753,7 +14758,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="953" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:3">
       <c r="A953" s="1" t="s">
         <v>1204</v>
       </c>
@@ -14761,7 +14766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="954" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:3">
       <c r="A954" s="1" t="s">
         <v>1205</v>
       </c>
@@ -14769,7 +14774,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="955" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:3">
       <c r="A955" s="1" t="s">
         <v>1206</v>
       </c>
@@ -14777,7 +14782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="956" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:3">
       <c r="A956" s="1" t="s">
         <v>229</v>
       </c>
@@ -14788,7 +14793,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="957" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:3">
       <c r="A957" s="1" t="s">
         <v>230</v>
       </c>
@@ -14799,7 +14804,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="958" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:3">
       <c r="A958" s="1" t="s">
         <v>231</v>
       </c>
@@ -14810,7 +14815,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="959" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:3">
       <c r="A959" s="1" t="s">
         <v>232</v>
       </c>
@@ -14821,7 +14826,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="960" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:3">
       <c r="A960" s="1" t="s">
         <v>233</v>
       </c>
@@ -14832,7 +14837,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="961" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:3">
       <c r="A961" s="1" t="s">
         <v>234</v>
       </c>
@@ -14843,7 +14848,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="962" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:3">
       <c r="A962" s="1" t="s">
         <v>235</v>
       </c>
@@ -14854,7 +14859,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="963" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:3">
       <c r="A963" s="1" t="s">
         <v>236</v>
       </c>
@@ -14865,7 +14870,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="964" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:3">
       <c r="A964" s="1" t="s">
         <v>237</v>
       </c>
@@ -14876,7 +14881,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="965" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:3">
       <c r="A965" s="1" t="s">
         <v>238</v>
       </c>
@@ -14887,7 +14892,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="966" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:3">
       <c r="A966" s="1" t="s">
         <v>240</v>
       </c>
@@ -14898,7 +14903,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="967" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:3">
       <c r="A967" s="1" t="s">
         <v>241</v>
       </c>
@@ -14909,7 +14914,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="968" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:3">
       <c r="A968" s="1" t="s">
         <v>242</v>
       </c>
@@ -14920,7 +14925,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="969" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:3">
       <c r="A969" s="1" t="s">
         <v>243</v>
       </c>
@@ -14931,7 +14936,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="970" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:3">
       <c r="A970" s="1" t="s">
         <v>245</v>
       </c>
@@ -14942,7 +14947,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="971" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:3">
       <c r="A971" s="1" t="s">
         <v>246</v>
       </c>
@@ -14953,7 +14958,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="972" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:3">
       <c r="A972" s="1" t="s">
         <v>247</v>
       </c>
@@ -14964,7 +14969,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="973" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:3">
       <c r="A973" s="1" t="s">
         <v>248</v>
       </c>
@@ -14975,7 +14980,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="974" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:3">
       <c r="A974" s="1" t="s">
         <v>249</v>
       </c>
@@ -14986,7 +14991,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="975" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:3">
       <c r="A975" s="1" t="s">
         <v>250</v>
       </c>
@@ -14997,7 +15002,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="976" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:3">
       <c r="A976" s="1" t="s">
         <v>252</v>
       </c>
